--- a/codebook-meta-analyses-final.xlsx
+++ b/codebook-meta-analyses-final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9975" windowHeight="1860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9975" windowHeight="1860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -1040,7 +1040,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,6 +1050,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1192,6 +1198,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1508,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18762,9 +18771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19539,7 +19548,7 @@
       <c r="X5" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="Y5" s="37" t="s">
+      <c r="Y5" s="58" t="s">
         <v>265</v>
       </c>
       <c r="Z5" s="25"/>

--- a/codebook-meta-analyses-final.xlsx
+++ b/codebook-meta-analyses-final.xlsx
@@ -835,9 +835,6 @@
     <t>Mentions independent correlations: "This resulted in a final database of 40 studies from which 50 independent samples containing 224 independent correlations were drawn". Contacting authors for unpublished data.</t>
   </si>
   <si>
-    <t>Mentions independent correlations: "Each of the correlations was drawn from independent samples, meaning each Asian, Black, Hispanic, and White sample contributed only one correlation coefficient to any meta-analysis.". Contacting authors for unpublished data. MA states 392 but only reports 284 studies.</t>
-  </si>
-  <si>
     <t>1. ("We also combined results of multiple reports using the same sample to meet statistical assumptions of independence (see Card, in press).")</t>
   </si>
   <si>
@@ -998,6 +995,9 @@
   </si>
   <si>
     <t>depreport</t>
+  </si>
+  <si>
+    <t>Mentions independent correlations: "Each of the correlations was drawn from independent samples, meaning each Asian, Black, Hispanic, and White sample contributed only one correlation coefficient to any meta-analysis.". Contacting authors for unpublished data. MA states 392 but only reports 283 studies.</t>
   </si>
 </sst>
 </file>
@@ -17999,7 +17999,7 @@
         <v>163</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:16383" x14ac:dyDescent="0.25">
@@ -18048,7 +18048,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>5</v>
@@ -18103,7 +18103,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>5</v>
@@ -18114,7 +18114,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>5</v>
@@ -18156,10 +18156,10 @@
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>5</v>
@@ -18171,7 +18171,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>5</v>
@@ -18195,7 +18195,7 @@
         <v>148</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -18771,9 +18771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18891,7 +18891,7 @@
         <v>27</v>
       </c>
       <c r="V1" s="50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W1" s="51" t="s">
         <v>94</v>
@@ -19156,7 +19156,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y2" s="37" t="s">
         <v>153</v>
@@ -19937,7 +19937,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="37" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="Y8" s="37" t="s">
         <v>153</v>
@@ -20063,10 +20063,10 @@
         <v>1</v>
       </c>
       <c r="W9" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="X9" s="37" t="s">
         <v>272</v>
-      </c>
-      <c r="X9" s="37" t="s">
-        <v>273</v>
       </c>
       <c r="Y9" s="37" t="s">
         <v>153</v>
@@ -20192,7 +20192,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X10" s="37"/>
       <c r="Y10" s="37" t="s">
@@ -20277,7 +20277,7 @@
         <v>147</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>152</v>
@@ -20319,10 +20319,10 @@
         <v>1</v>
       </c>
       <c r="W11" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X11" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y11" s="37" t="s">
         <v>154</v>
@@ -20448,10 +20448,10 @@
         <v>1</v>
       </c>
       <c r="W12" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="X12" s="37" t="s">
         <v>279</v>
-      </c>
-      <c r="X12" s="37" t="s">
-        <v>280</v>
       </c>
       <c r="Y12" s="37" t="s">
         <v>153</v>
@@ -20577,7 +20577,7 @@
         <v>1</v>
       </c>
       <c r="W13" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X13" s="37"/>
       <c r="Y13" s="37" t="s">
@@ -20708,7 +20708,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y14" s="37" t="s">
         <v>154</v>
@@ -20834,10 +20834,10 @@
         <v>1</v>
       </c>
       <c r="W15" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="X15" s="37" t="s">
         <v>283</v>
-      </c>
-      <c r="X15" s="37" t="s">
-        <v>284</v>
       </c>
       <c r="Y15" s="37" t="s">
         <v>155</v>
@@ -20964,10 +20964,10 @@
         <v>1</v>
       </c>
       <c r="W16" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="X16" s="37" t="s">
         <v>285</v>
-      </c>
-      <c r="X16" s="37" t="s">
-        <v>286</v>
       </c>
       <c r="Y16" s="37" t="s">
         <v>153</v>
@@ -21092,7 +21092,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X17" s="37"/>
       <c r="Y17" s="37" t="s">
@@ -21217,10 +21217,10 @@
         <v>1</v>
       </c>
       <c r="W18" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="X18" s="37" t="s">
         <v>291</v>
-      </c>
-      <c r="X18" s="37" t="s">
-        <v>292</v>
       </c>
       <c r="Y18" s="37" t="s">
         <v>153</v>
@@ -21344,7 +21344,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X19" s="37"/>
       <c r="Y19" s="37" t="s">
@@ -21470,10 +21470,10 @@
         <v>1</v>
       </c>
       <c r="W20" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="X20" s="37" t="s">
         <v>294</v>
-      </c>
-      <c r="X20" s="37" t="s">
-        <v>295</v>
       </c>
       <c r="Y20" s="37" t="s">
         <v>153</v>
@@ -21600,7 +21600,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X21" s="37"/>
       <c r="Y21" s="37" t="s">
@@ -21721,10 +21721,10 @@
         <v>1</v>
       </c>
       <c r="W22" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="X22" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y22" s="37" t="s">
         <v>153</v>
@@ -21851,10 +21851,10 @@
         <v>1</v>
       </c>
       <c r="W23" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X23" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y23" s="37" t="s">
         <v>153</v>
@@ -21987,7 +21987,7 @@
         <v>1</v>
       </c>
       <c r="W24" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X24" s="37" t="s">
         <v>166</v>
@@ -22123,7 +22123,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X25" s="37"/>
       <c r="Y25" s="37" t="s">
@@ -22253,10 +22253,10 @@
         <v>1</v>
       </c>
       <c r="W26" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X26" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y26" s="37" t="s">
         <v>153</v>
@@ -22384,7 +22384,7 @@
         <v>1</v>
       </c>
       <c r="W27" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X27" s="48" t="s">
         <v>164</v>
@@ -22515,7 +22515,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X28" s="37" t="s">
         <v>168</v>
@@ -22646,10 +22646,10 @@
         <v>1</v>
       </c>
       <c r="W29" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="X29" s="37" t="s">
         <v>304</v>
-      </c>
-      <c r="X29" s="37" t="s">
-        <v>305</v>
       </c>
       <c r="Y29" s="37" t="s">
         <v>153</v>
@@ -22776,7 +22776,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y30" s="37" t="s">
         <v>153</v>
@@ -22897,7 +22897,7 @@
         <v>1</v>
       </c>
       <c r="W31" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X31" s="6" t="s">
         <v>158</v>
@@ -23022,7 +23022,7 @@
         <v>1</v>
       </c>
       <c r="W32" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X32" s="37" t="s">
         <v>170</v>
@@ -23277,10 +23277,10 @@
         <v>1</v>
       </c>
       <c r="W34" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X34" s="40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y34" s="40" t="s">
         <v>154</v>
